--- a/biology/Médecine/Diathermie/Diathermie.xlsx
+++ b/biology/Médecine/Diathermie/Diathermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diathermie est le phénomène par lequel des ondes électromagnétiques chauffent un matériau diélectrique, par rotation de dipôles. 
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation en chirurgie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En chirurgie, la diathermie est utilisée dans les bistouris électriques afin de permettre l'échauffement du tissu ciblé, afin de réaliser l'incision ou la cautérisation.
  Portail de la médecine   Portail de la physique   Portail de l’électricité et de l’électronique                   </t>
